--- a/DataRepository/Temporal_Quartile_Ranks.xlsx
+++ b/DataRepository/Temporal_Quartile_Ranks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slawler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sputnam\Documents\GitHub\pfra-hydromet\DataRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>19</v>
@@ -640,7 +640,7 @@
         <v>14.000000000000002</v>
       </c>
       <c r="G9">
-        <v>0.26861356079225096</v>
+        <v>0.26861356079225102</v>
       </c>
     </row>
   </sheetData>
